--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,10 +488,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-1:At least one of Patient.identifier.system or Patient.identifier.type or Patient.identifier.assigner SHALL be present {system.exists() or type.exists() or assigner.exists()}</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -505,203 +498,6 @@
   </si>
   <si>
     <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique within the system.</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.identifier:cpr</t>
@@ -728,30 +524,6 @@
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -779,11 +551,10 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-4:If Patient.link is present, then Patient.active SHALL be present {link.exists() implies active.exists()}</t>
-  </si>
-  <si>
     <t>statusCode</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -812,10 +583,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}ipa-pat-3:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -840,12 +607,38 @@
     <t>Patient.name.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Patient.name:official.extension</t>
   </si>
   <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>Patient.name:official.use</t>
   </si>
   <si>
@@ -862,6 +655,9 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -1008,6 +804,10 @@
   </si>
   <si>
     <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Time period when name was/is in use</t>
@@ -1455,6 +1255,10 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1462,6 +1266,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.dk/fhir/core/ValueSet/dk-marital-status</t>
@@ -1662,6 +1469,10 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1944,10 +1755,6 @@
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
 * Distribution of patient information across multiple servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipa-pat-4
-</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -2122,21 +1929,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2313,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2346,7 +2138,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
@@ -2489,7 +2281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2604,7 +2396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2721,7 +2513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2836,7 +2628,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2953,7 +2745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -3070,7 +2862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -3187,7 +2979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3304,7 +3096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -3421,7 +3213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -3540,7 +3332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3559,7 +3351,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3637,32 +3429,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AO11" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3692,7 +3486,9 @@
         <v>160</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3740,19 +3536,19 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>162</v>
@@ -3764,121 +3560,125 @@
         <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3887,12 +3687,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3903,31 +3703,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3952,37 +3752,35 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3991,29 +3789,31 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>81</v>
       </c>
@@ -4034,19 +3834,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -4071,13 +3871,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -4095,13 +3895,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -4110,27 +3910,27 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4150,10 +3950,10 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>190</v>
@@ -4161,12 +3961,8 @@
       <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4178,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -4214,7 +4010,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4226,10 +4022,10 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
@@ -4238,50 +4034,50 @@
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4295,7 +4091,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -4319,34 +4115,34 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
@@ -4355,18 +4151,18 @@
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4374,7 +4170,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4383,28 +4179,32 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>81</v>
@@ -4422,13 +4222,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4446,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4461,27 +4261,27 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
+      <c r="B19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4504,18 +4304,20 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4563,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4578,63 +4380,61 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4682,19 +4482,19 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>227</v>
@@ -4712,23 +4512,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4737,18 +4537,20 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4797,22 +4599,22 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4821,22 +4623,22 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4852,20 +4654,18 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4902,19 +4702,19 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4926,10 +4726,10 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4938,18 +4738,18 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4960,32 +4760,28 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -5009,13 +4805,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5033,13 +4829,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -5048,7 +4844,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -5057,18 +4853,18 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5091,19 +4887,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -5128,13 +4922,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5152,7 +4946,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5167,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -5176,18 +4970,18 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5198,7 +4992,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5210,19 +5004,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5235,7 +5029,7 @@
         <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -5271,13 +5065,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5286,27 +5080,27 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5314,13 +5108,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>81</v>
@@ -5329,18 +5123,20 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5352,7 +5148,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5364,13 +5160,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5388,7 +5184,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5403,27 +5199,27 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5446,16 +5242,20 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5503,7 +5303,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5518,27 +5318,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5555,24 +5355,26 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5620,7 +5422,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5635,27 +5437,27 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5666,38 +5468,36 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5741,42 +5541,42 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5787,32 +5587,28 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5848,90 +5644,88 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5967,19 +5761,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5991,32 +5785,34 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6037,13 +5833,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6094,22 +5890,22 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -6124,23 +5920,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6152,17 +5950,15 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6199,19 +5995,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6226,7 +6022,7 @@
         <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6241,12 +6037,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6254,7 +6050,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -6272,29 +6068,29 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -6306,13 +6102,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6330,7 +6126,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6141,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6354,18 +6150,18 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6388,20 +6184,18 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6413,7 +6207,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6425,13 +6219,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6449,7 +6243,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6464,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -6473,26 +6267,26 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6507,18 +6301,20 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6530,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6362,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6590,22 +6386,22 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6624,17 +6420,15 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6647,7 +6441,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6477,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6707,29 +6501,29 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6741,13 +6535,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6762,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6798,13 +6592,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6607,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6822,29 +6616,29 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6856,15 +6650,17 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6877,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6913,13 +6709,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6928,7 +6724,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6937,22 +6733,22 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6971,18 +6767,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7030,7 +6824,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7045,7 +6839,7 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -7054,29 +6848,29 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -7088,20 +6882,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7113,7 +6903,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7149,13 +6939,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -7164,27 +6954,27 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7198,7 +6988,7 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -7207,20 +6997,18 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7244,13 +7032,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7268,7 +7056,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7283,27 +7071,27 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7317,7 +7105,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -7326,19 +7114,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7351,7 +7137,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7387,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7402,27 +7188,27 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7439,25 +7225,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7482,13 +7266,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7506,7 +7288,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7521,27 +7303,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7552,7 +7334,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7561,22 +7343,22 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7625,13 +7407,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7640,27 +7422,27 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7671,7 +7453,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7683,16 +7465,20 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7740,46 +7526,46 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>162</v>
+        <v>422</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7798,18 +7584,20 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>164</v>
+        <v>427</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7845,19 +7633,19 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7869,13 +7657,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7887,16 +7675,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7917,13 +7703,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7974,22 +7760,22 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
@@ -8004,25 +7790,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -8034,15 +7818,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8091,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8106,7 +7892,7 @@
         <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -8121,23 +7907,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8149,19 +7935,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8174,7 +7960,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -8186,13 +7972,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8210,22 +7996,22 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -8234,18 +8020,18 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8256,7 +8042,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8265,21 +8051,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8291,7 +8077,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8303,13 +8089,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8327,13 +8113,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8342,27 +8128,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8382,22 +8168,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8410,7 +8194,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8446,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8461,27 +8245,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8501,19 +8285,23 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8525,7 +8313,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>81</v>
@@ -8561,7 +8349,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8576,31 +8364,31 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>414</v>
+        <v>267</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8616,19 +8404,21 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8640,7 +8430,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -8676,7 +8466,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8691,31 +8481,31 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8731,21 +8521,21 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8757,7 +8547,7 @@
         <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>81</v>
@@ -8769,13 +8559,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8793,7 +8583,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8808,31 +8598,31 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8848,19 +8638,21 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8908,7 +8700,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8917,37 +8709,37 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8963,16 +8755,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8987,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>81</v>
@@ -9023,7 +8815,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9038,27 +8830,27 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9069,7 +8861,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9078,21 +8870,23 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9140,13 +8934,13 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
@@ -9155,27 +8949,27 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9195,21 +8989,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>190</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>191</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9221,7 +9013,7 @@
         <v>81</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>81</v>
@@ -9257,7 +9049,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>192</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9269,10 +9061,10 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -9281,29 +9073,29 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9315,18 +9107,18 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9350,11 +9142,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9372,77 +9166,77 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>467</v>
+        <v>172</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>471</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>475</v>
+        <v>143</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9491,42 +9285,42 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9534,10 +9328,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9549,19 +9343,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9586,13 +9380,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9610,13 +9404,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -9625,27 +9419,27 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>162</v>
+        <v>494</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9656,7 +9450,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9668,19 +9462,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>487</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9729,53 +9523,53 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>162</v>
+        <v>502</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9787,15 +9581,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>159</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9832,58 +9628,58 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>133</v>
+        <v>505</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9902,16 +9698,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>506</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9961,7 +9757,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9973,66 +9769,62 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>190</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -10080,22 +9872,22 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>192</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
@@ -10110,16 +9902,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10138,18 +9930,18 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10173,31 +9965,31 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10209,30 +10001,30 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>507</v>
+        <v>172</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10252,21 +10044,21 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10314,7 +10106,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10323,33 +10115,33 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10360,7 +10152,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10369,23 +10161,21 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10409,13 +10199,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10433,13 +10223,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -10448,27 +10238,27 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10491,18 +10281,18 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>363</v>
+        <v>537</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10550,7 +10340,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10559,33 +10349,33 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>368</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10605,21 +10395,21 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>335</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10643,13 +10433,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10667,7 +10457,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10682,27 +10472,27 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10722,20 +10512,22 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>214</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10784,7 +10576,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10793,33 +10585,33 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10830,28 +10622,32 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10899,13 +10695,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -10914,10 +10710,10 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10929,12 +10725,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10945,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10957,20 +10753,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11018,25 +10810,25 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>539</v>
+        <v>192</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>544</v>
+        <v>172</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -11048,23 +10840,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11076,15 +10868,17 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11133,22 +10927,22 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -11163,16 +10957,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11185,24 +10979,26 @@
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11250,7 +11046,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>167</v>
+        <v>438</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11265,7 +11061,7 @@
         <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -11280,48 +11076,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>563</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11369,42 +11163,42 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>567</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11424,23 +11218,19 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11464,13 +11254,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>114</v>
+        <v>571</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11488,7 +11278,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>88</v>
@@ -11503,1914 +11293,22 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>555</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO94" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO94">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}marital-status-unknown-usage:Status in maritalStatus is unknown in a danish context. Consider mapping the value to UNK. See https://cpr.dk/borgere/hvad-staar-der-om-mig-i-cpr-registerindsigt/hvad-og-hvem-er-registreret-i-cpr-og-hvem-opdaterer-oplysninger-om-dig-i-cpr/ {maritalStatus.coding.where(code = 'P' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty() or maritalStatus.coding.where(code = 'A' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1047,7 +1051,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -1922,10 +1926,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2378,13 +2382,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2398,10 +2402,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2412,7 +2416,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2421,19 +2425,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2483,13 +2487,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2515,10 +2519,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2529,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2538,16 +2542,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2598,19 +2602,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2630,10 +2634,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2644,28 +2648,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2715,19 +2719,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2747,10 +2751,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2761,7 +2765,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2773,16 +2777,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2808,13 +2812,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2832,19 +2836,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2864,21 +2868,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2890,16 +2894,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2949,22 +2953,22 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>81</v>
@@ -2981,14 +2985,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3007,16 +3011,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3066,7 +3070,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -3081,7 +3085,7 @@
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>81</v>
@@ -3098,14 +3102,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3124,16 +3128,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3183,7 +3187,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3195,10 +3199,10 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>81</v>
@@ -3215,14 +3219,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3235,25 +3239,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3302,7 +3306,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3314,10 +3318,10 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>81</v>
@@ -3334,10 +3338,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3345,7 +3349,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3357,20 +3361,20 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3407,17 +3411,17 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3429,19 +3433,19 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -3449,13 +3453,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
@@ -3465,7 +3469,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3477,17 +3481,17 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3536,7 +3540,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3545,13 +3549,13 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>81</v>
@@ -3560,7 +3564,7 @@
         <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3582,103 +3586,103 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3712,22 +3716,22 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3764,17 +3768,17 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3786,19 +3790,19 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3806,13 +3810,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>81</v>
@@ -3822,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3831,22 +3835,22 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3895,7 +3899,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3907,19 +3911,19 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3927,10 +3931,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3941,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3953,13 +3957,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4010,13 +4014,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -4025,7 +4029,7 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
@@ -4042,14 +4046,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4068,16 +4072,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4115,19 +4119,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4139,10 +4143,10 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
@@ -4159,10 +4163,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4170,41 +4174,41 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>81</v>
@@ -4222,13 +4226,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4246,22 +4250,22 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
@@ -4270,7 +4274,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4278,10 +4282,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4292,7 +4296,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4301,22 +4305,22 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4365,22 +4369,22 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>81</v>
@@ -4389,7 +4393,7 @@
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4397,21 +4401,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4420,19 +4424,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4482,22 +4486,22 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4506,7 +4510,7 @@
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4514,14 +4518,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4537,19 +4541,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4599,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4611,10 +4615,10 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4623,7 +4627,7 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4631,10 +4635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4654,16 +4658,16 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4714,7 +4718,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4726,10 +4730,10 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4738,7 +4742,7 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4746,10 +4750,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4769,16 +4773,16 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4829,7 +4833,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4841,10 +4845,10 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4853,7 +4857,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4861,10 +4865,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4875,7 +4879,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4884,20 +4888,20 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4946,22 +4950,22 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4970,7 +4974,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4978,10 +4982,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5001,22 +5005,22 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5065,7 +5069,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5077,19 +5081,19 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5097,10 +5101,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5120,22 +5124,22 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5160,13 +5164,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5184,31 +5188,31 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5216,10 +5220,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5230,7 +5234,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5239,22 +5243,22 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5303,42 +5307,42 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5349,31 +5353,31 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5422,31 +5426,31 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5454,10 +5458,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5477,22 +5481,22 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5541,7 +5545,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5553,19 +5557,19 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5573,10 +5577,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5587,7 +5591,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5599,13 +5603,13 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5656,13 +5660,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5671,7 +5675,7 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
@@ -5688,14 +5692,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5714,16 +5718,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5761,19 +5765,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5785,10 +5789,10 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
@@ -5805,13 +5809,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="C32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
@@ -5821,7 +5825,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5833,13 +5837,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5890,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5902,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5922,13 +5926,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
@@ -5938,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5950,13 +5954,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6007,7 +6011,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6019,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -6039,10 +6043,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6053,31 +6057,31 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6090,7 +6094,7 @@
         <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -6102,13 +6106,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6126,22 +6130,22 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6150,7 +6154,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6158,10 +6162,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6172,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6181,19 +6185,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6207,7 +6211,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6219,13 +6223,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6243,22 +6247,22 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -6267,7 +6271,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6275,10 +6279,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6289,7 +6293,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6298,22 +6302,22 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6326,7 +6330,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6362,22 +6366,22 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6386,7 +6390,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6394,10 +6398,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6417,16 +6421,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6441,7 +6445,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6477,7 +6481,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6489,10 +6493,10 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6501,7 +6505,7 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6509,21 +6513,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6532,16 +6536,16 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6556,7 +6560,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6592,22 +6596,22 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6616,7 +6620,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6624,21 +6628,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6647,19 +6651,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6673,7 +6677,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6709,22 +6713,22 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6733,7 +6737,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6741,21 +6745,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6764,16 +6768,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6824,22 +6828,22 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6848,7 +6852,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6856,21 +6860,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6879,16 +6883,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6903,7 +6907,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6939,22 +6943,22 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6963,7 +6967,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6971,10 +6975,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6985,7 +6989,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6994,19 +6998,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7056,22 +7060,22 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7080,7 +7084,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7088,10 +7092,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7102,7 +7106,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7111,20 +7115,20 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7137,7 +7141,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7173,22 +7177,22 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7197,7 +7201,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7205,10 +7209,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7219,7 +7223,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7231,17 +7235,17 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7266,11 +7270,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7288,31 +7292,31 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7320,10 +7324,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7334,7 +7338,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7346,19 +7350,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7407,31 +7411,31 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7439,10 +7443,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7465,19 +7469,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7526,7 +7530,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7538,19 +7542,19 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7558,10 +7562,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7584,19 +7588,19 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7645,7 +7649,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7657,13 +7661,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7677,10 +7681,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7691,7 +7695,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7703,13 +7707,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7760,13 +7764,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7775,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
@@ -7792,14 +7796,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7818,16 +7822,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7877,7 +7881,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7889,10 +7893,10 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7909,14 +7913,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7929,25 +7933,25 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7996,7 +8000,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8008,10 +8012,10 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -8028,10 +8032,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8054,17 +8058,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8089,13 +8093,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8113,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8125,19 +8129,19 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8145,10 +8149,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8159,7 +8163,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8171,17 +8175,17 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8230,31 +8234,31 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8262,10 +8266,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8288,19 +8292,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8349,7 +8353,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8361,19 +8365,19 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8381,10 +8385,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8395,7 +8399,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8407,17 +8411,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8466,31 +8470,31 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8498,10 +8502,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8512,7 +8516,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8524,17 +8528,17 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8559,13 +8563,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8583,31 +8587,31 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8615,10 +8619,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8629,7 +8633,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8641,17 +8645,17 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8700,31 +8704,31 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8732,10 +8736,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8746,7 +8750,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8758,13 +8762,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8815,25 +8819,25 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8847,10 +8851,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8873,19 +8877,19 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8934,7 +8938,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8946,13 +8950,13 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8966,10 +8970,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8980,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8992,13 +8996,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9049,13 +9053,13 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -9064,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -9081,14 +9085,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9107,16 +9111,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9166,7 +9170,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9178,10 +9182,10 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -9198,14 +9202,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9218,25 +9222,25 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9285,7 +9289,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9297,10 +9301,10 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -9317,10 +9321,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9328,10 +9332,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9343,19 +9347,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9380,13 +9384,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9404,31 +9408,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9436,10 +9440,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9450,7 +9454,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9462,19 +9466,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9523,31 +9527,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9555,14 +9559,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9581,16 +9585,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9628,17 +9632,17 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9650,19 +9654,19 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9670,16 +9674,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9698,16 +9702,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9757,7 +9761,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9769,19 +9773,19 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9789,10 +9793,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9803,7 +9807,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9815,13 +9819,13 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9872,13 +9876,13 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
@@ -9887,7 +9891,7 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
@@ -9904,14 +9908,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9930,16 +9934,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9977,19 +9981,19 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10001,10 +10005,10 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
@@ -10021,10 +10025,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10035,7 +10039,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -10044,19 +10048,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10106,22 +10110,22 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -10138,10 +10142,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10152,7 +10156,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10161,19 +10165,19 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10199,13 +10203,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10223,22 +10227,22 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -10255,10 +10259,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10269,7 +10273,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10281,16 +10285,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10340,22 +10344,22 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -10364,7 +10368,7 @@
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -10372,10 +10376,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10386,7 +10390,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10395,19 +10399,19 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10457,22 +10461,22 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>81</v>
@@ -10489,10 +10493,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10503,7 +10507,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10512,22 +10516,22 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10576,25 +10580,25 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10608,10 +10612,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10628,25 +10632,25 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10695,7 +10699,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10707,13 +10711,13 @@
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10727,10 +10731,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10741,7 +10745,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10753,13 +10757,13 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10810,13 +10814,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -10825,7 +10829,7 @@
         <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>81</v>
@@ -10842,14 +10846,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10868,16 +10872,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10927,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10939,10 +10943,10 @@
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -10959,14 +10963,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10979,25 +10983,25 @@
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11046,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11058,10 +11062,10 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -11078,10 +11082,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11089,10 +11093,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11101,19 +11105,19 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11163,31 +11167,31 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11195,10 +11199,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11206,10 +11210,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11218,16 +11222,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11254,13 +11258,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11278,25 +11282,25 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -528,6 +528,32 @@
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr</t>
+  </si>
+  <si>
+    <t>x-ecpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-x-ecpr-identifier}
+</t>
+  </si>
+  <si>
+    <t>[DA] X-eCPR, tildelt fra den nationale eCPR service</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr</t>
+  </si>
+  <si>
+    <t>d-ecpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-d-ecpr-identifier}
+</t>
+  </si>
+  <si>
+    <t>[DA] D-eCPR, decentral eCPR</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2109,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3575,9 +3601,11 @@
         <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3592,32 +3620,28 @@
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q13" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3661,31 +3685,31 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3693,12 +3717,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3707,7 +3733,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3716,22 +3742,20 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3768,17 +3792,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3787,22 +3813,22 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3810,14 +3836,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3832,30 +3856,32 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="P15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3899,13 +3925,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3914,16 +3940,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3931,10 +3957,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3945,7 +3971,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3954,19 +3980,23 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4002,43 +4032,41 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -4046,21 +4074,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -4069,21 +4099,23 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4119,19 +4151,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4143,19 +4175,19 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -4163,10 +4195,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4174,7 +4206,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -4183,32 +4215,28 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>81</v>
@@ -4226,13 +4254,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4250,7 +4278,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4262,10 +4290,10 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
@@ -4274,7 +4302,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4282,21 +4310,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4305,23 +4333,21 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4357,34 +4383,34 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>81</v>
@@ -4393,7 +4419,7 @@
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4401,14 +4427,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4421,30 +4447,32 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>81</v>
@@ -4462,13 +4490,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4486,7 +4514,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4501,7 +4529,7 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4510,7 +4538,7 @@
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4518,21 +4546,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4544,18 +4572,20 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4603,13 +4633,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4618,7 +4648,7 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4627,7 +4657,7 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4635,21 +4665,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4661,15 +4691,17 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4718,13 +4750,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4733,7 +4765,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4742,7 +4774,7 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4750,14 +4782,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4776,15 +4808,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4833,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4848,7 +4882,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4857,7 +4891,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4865,10 +4899,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4879,7 +4913,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4891,18 +4925,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4950,13 +4982,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4965,7 +4997,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4974,7 +5006,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4982,10 +5014,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5008,20 +5040,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5069,7 +5097,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5084,16 +5112,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5101,10 +5129,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5127,19 +5155,17 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5164,13 +5190,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5188,7 +5214,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5203,16 +5229,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5220,10 +5246,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5234,7 +5260,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5246,19 +5272,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5307,13 +5333,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -5322,27 +5348,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5359,25 +5385,25 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5402,13 +5428,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5426,7 +5452,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5441,16 +5467,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5458,10 +5484,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5472,7 +5498,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5484,19 +5510,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5545,13 +5571,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5560,27 +5586,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5597,22 +5623,26 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5660,7 +5690,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5672,19 +5702,19 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5692,14 +5722,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5715,21 +5745,23 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5765,19 +5797,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5789,19 +5821,19 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5809,14 +5841,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5837,13 +5867,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5894,22 +5924,22 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5926,23 +5956,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5954,15 +5982,17 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5999,19 +6029,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6026,7 +6056,7 @@
         <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6043,12 +6073,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6063,13 +6095,13 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>321</v>
@@ -6077,12 +6109,8 @@
       <c r="M34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6094,7 +6122,7 @@
         <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -6106,13 +6134,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6130,22 +6158,22 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6154,7 +6182,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6162,12 +6190,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6185,20 +6215,18 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6211,7 +6239,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6223,13 +6251,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6247,22 +6275,22 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -6271,7 +6299,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6279,10 +6307,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6299,25 +6327,25 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6330,7 +6358,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6342,13 +6370,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6366,7 +6394,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6381,7 +6409,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6390,7 +6418,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6398,10 +6426,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6412,7 +6440,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6424,15 +6452,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6445,7 +6475,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6457,13 +6487,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6481,13 +6511,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6496,7 +6526,7 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6505,7 +6535,7 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6513,14 +6543,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6539,16 +6569,20 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6560,7 +6594,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6596,7 +6630,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6611,7 +6645,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>359</v>
+        <v>227</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6620,7 +6654,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6628,21 +6662,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6654,17 +6688,15 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6677,7 +6709,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6713,13 +6745,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6728,7 +6760,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6737,7 +6769,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6745,14 +6777,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6771,13 +6803,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6792,7 +6824,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6828,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6843,7 +6875,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6852,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6860,14 +6892,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6886,15 +6918,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6907,7 +6941,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6943,7 +6977,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6958,7 +6992,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6967,7 +7001,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6975,14 +7009,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7001,17 +7035,15 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7092,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7075,7 +7107,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7084,7 +7116,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7092,14 +7124,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7118,18 +7150,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7141,7 +7171,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7177,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7192,7 +7222,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7201,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7209,10 +7239,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7232,21 +7262,21 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7270,11 +7300,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7292,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7307,16 +7339,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7324,10 +7356,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7347,22 +7379,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>410</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7375,7 +7405,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7411,7 +7441,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7426,16 +7456,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7443,10 +7473,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7457,7 +7487,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7469,19 +7499,17 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7506,13 +7534,11 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7530,13 +7556,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7545,16 +7571,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>173</v>
+        <v>415</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7562,10 +7588,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7576,7 +7602,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7588,19 +7614,19 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7649,31 +7675,31 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>431</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7681,10 +7707,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7695,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7707,16 +7733,20 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>191</v>
+        <v>427</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7764,31 +7794,31 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>173</v>
+        <v>431</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7796,14 +7826,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7822,18 +7852,20 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>196</v>
+        <v>436</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7881,7 +7913,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>199</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7893,13 +7925,13 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>439</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>173</v>
+        <v>440</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7913,46 +7945,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8000,22 +8028,22 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -8032,14 +8060,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8058,18 +8086,18 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>441</v>
+        <v>136</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8093,13 +8121,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8117,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>207</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8129,19 +8157,19 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>446</v>
+        <v>181</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8149,43 +8177,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8234,31 +8264,31 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8266,10 +8296,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8292,19 +8322,17 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>267</v>
+        <v>451</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8329,13 +8357,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8353,7 +8381,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8368,16 +8396,16 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8385,10 +8413,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8411,17 +8439,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8470,7 +8498,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8485,16 +8513,16 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8502,10 +8530,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8516,7 +8544,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8528,17 +8556,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8563,13 +8593,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8587,13 +8617,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8602,16 +8632,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8619,10 +8649,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8645,17 +8675,17 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8704,7 +8734,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8713,22 +8743,22 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>473</v>
+        <v>313</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8736,10 +8766,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8762,16 +8792,18 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8795,13 +8827,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8819,7 +8851,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8834,16 +8866,16 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>478</v>
+        <v>286</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8851,10 +8883,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8865,7 +8897,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8877,19 +8909,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8938,31 +8968,31 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8970,10 +9000,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8996,13 +9026,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>191</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9053,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9065,13 +9095,13 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9092,7 +9122,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9111,18 +9141,20 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>196</v>
+        <v>489</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9170,7 +9202,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>199</v>
+        <v>487</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9182,13 +9214,13 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>173</v>
+        <v>492</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9202,46 +9234,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>199</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9289,22 +9317,22 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -9321,21 +9349,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9347,20 +9375,18 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>490</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9384,13 +9410,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9408,31 +9434,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>494</v>
+        <v>181</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9440,45 +9466,45 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>501</v>
+        <v>144</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9527,31 +9553,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>502</v>
+        <v>132</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9559,21 +9585,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9585,18 +9611,20 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>507</v>
+        <v>408</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9620,35 +9648,37 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -9657,16 +9687,16 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>173</v>
+        <v>503</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9674,23 +9704,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>515</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9702,18 +9730,20 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9767,7 +9797,7 @@
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -9776,16 +9806,16 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9793,21 +9823,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9819,15 +9849,17 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>515</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>191</v>
+        <v>516</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9864,43 +9896,41 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>193</v>
+        <v>513</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>173</v>
+        <v>520</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9908,14 +9938,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>134</v>
+        <v>514</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9934,16 +9966,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>136</v>
+        <v>524</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>517</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>138</v>
+        <v>518</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9981,19 +10013,19 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>199</v>
+        <v>513</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10005,19 +10037,19 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>520</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -10025,10 +10057,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10048,20 +10080,18 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10110,7 +10140,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>526</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10119,13 +10149,13 @@
         <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -10142,21 +10172,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10165,19 +10195,19 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>530</v>
+        <v>136</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>531</v>
+        <v>204</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>532</v>
+        <v>138</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10203,46 +10233,46 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>535</v>
+        <v>207</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -10259,10 +10289,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10282,19 +10312,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>538</v>
+        <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>161</v>
+        <v>532</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10344,7 +10374,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10353,13 +10383,13 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -10368,7 +10398,7 @@
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -10376,10 +10406,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10402,16 +10432,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10437,13 +10467,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10461,7 +10491,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10493,10 +10523,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10516,23 +10546,21 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>550</v>
+        <v>161</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10580,7 +10608,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10589,22 +10617,22 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>473</v>
+        <v>163</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10612,10 +10640,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10626,32 +10654,30 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10699,13 +10725,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -10714,10 +10740,10 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>559</v>
+        <v>132</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10731,10 +10757,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10754,19 +10780,23 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>191</v>
+        <v>557</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10814,7 +10844,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>193</v>
+        <v>556</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10826,13 +10856,13 @@
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>173</v>
+        <v>481</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10846,14 +10876,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10866,24 +10896,26 @@
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>136</v>
+        <v>563</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>196</v>
+        <v>564</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10931,7 +10963,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>199</v>
+        <v>562</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10943,13 +10975,13 @@
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>173</v>
+        <v>567</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10963,46 +10995,42 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>437</v>
+        <v>199</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11050,22 +11078,22 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -11082,21 +11110,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11105,19 +11133,19 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>564</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>565</v>
+        <v>136</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>566</v>
+        <v>204</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>567</v>
+        <v>138</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11167,31 +11195,31 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>563</v>
+        <v>207</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11199,42 +11227,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11258,57 +11290,289 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="B79" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG78" t="s" s="2">
+      <c r="L79" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG79" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH78" t="s" s="2">
+      <c r="AH79" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
+      <c r="AK79" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1427,10 +1427,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-RelatedPersonRelationshipTypes</t>
   </si>
   <si>
     <t>code</t>
@@ -1802,7 +1799,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -2154,7 +2151,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.44921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2168,8 +2165,8 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.1484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -8359,11 +8356,9 @@
       <c r="X53" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Y53" s="2"/>
+      <c r="Z53" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8396,7 +8391,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>181</v>
@@ -8405,7 +8400,7 @@
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8413,10 +8408,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8442,14 +8437,14 @@
         <v>184</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8498,7 +8493,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8522,7 +8517,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8530,10 +8525,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8559,13 +8554,13 @@
         <v>271</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>275</v>
@@ -8617,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8641,7 +8636,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8649,10 +8644,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8678,14 +8673,14 @@
         <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8734,7 +8729,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8758,7 +8753,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8766,10 +8761,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8798,11 +8793,11 @@
         <v>280</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8851,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8870,7 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8883,10 +8878,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8909,17 +8904,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8968,7 +8963,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8977,13 +8972,13 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>181</v>
@@ -8992,7 +8987,7 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -9000,10 +8995,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9029,10 +9024,10 @@
         <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9083,7 +9078,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9098,7 +9093,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>181</v>
@@ -9115,10 +9110,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9144,16 +9139,16 @@
         <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9202,7 +9197,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9217,10 +9212,10 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9234,10 +9229,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9349,10 +9344,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9466,10 +9461,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9585,10 +9580,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9614,16 +9609,16 @@
         <v>408</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9672,7 +9667,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
@@ -9687,16 +9682,16 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9704,10 +9699,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9733,16 +9728,16 @@
         <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9791,7 +9786,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9806,16 +9801,16 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9823,14 +9818,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9849,16 +9844,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9896,7 +9891,7 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
@@ -9906,7 +9901,7 @@
         <v>152</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9921,7 +9916,7 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>181</v>
@@ -9930,7 +9925,7 @@
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9938,16 +9933,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="D67" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9966,16 +9961,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10025,7 +10020,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10040,7 +10035,7 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>181</v>
@@ -10049,7 +10044,7 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -10057,10 +10052,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10172,10 +10167,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10289,10 +10284,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10318,13 +10313,13 @@
         <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10374,7 +10369,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10383,7 +10378,7 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>101</v>
@@ -10406,10 +10401,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10435,13 +10430,13 @@
         <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10470,28 +10465,28 @@
         <v>412</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Z71" t="s" s="2">
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10523,10 +10518,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10549,16 +10544,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>161</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10608,7 +10603,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10640,10 +10635,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10669,13 +10664,13 @@
         <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10725,7 +10720,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10757,10 +10752,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10783,19 +10778,19 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10844,7 +10839,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10859,10 +10854,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10876,10 +10871,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10905,16 +10900,16 @@
         <v>434</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10963,7 +10958,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10978,7 +10973,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>181</v>
@@ -10995,10 +10990,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11110,10 +11105,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11227,10 +11222,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11346,10 +11341,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11372,16 +11367,16 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11431,7 +11426,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11455,7 +11450,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11463,10 +11458,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11492,10 +11487,10 @@
         <v>109</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11525,11 +11520,11 @@
         <v>214</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11546,7 +11541,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11561,7 +11556,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>181</v>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}marital-status-unknown-usage:Status in maritalStatus is unknown in a danish context. Consider mapping the value to UNK. See https://cpr.dk/borgere/hvad-staar-der-om-mig-i-cpr-registerindsigt/hvad-og-hvem-er-registreret-i-cpr-og-hvem-opdaterer-oplysninger-om-dig-i-cpr/ {maritalStatus.coding.where(code = 'P' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty() or maritalStatus.coding.where(code = 'A' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}marital-status-unknown-usage:The constraint ensures that only permitted forms of marriage can be used in the Danish context, as there will be no authority for other forms. See https://cpr.dk/borgere/hvad-staar-der-om-mig-i-cpr-registerindsigt/hvad-og-hvem-er-registreret-i-cpr-og-hvem-opdaterer-oplysninger-om-dig-i-cpr/ {maritalStatus.coding.where(code = 'P' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty() or maritalStatus.coding.where(code = 'A' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1077,7 +1077,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -515,19 +515,6 @@
   </si>
   <si>
     <t>[DA] cpr-nummer, som det fremgår af CPR registeret</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Patient.identifier:x-ecpr</t>
@@ -1038,6 +1025,22 @@
     <t>Identifier holding the official organization identifier for a danish region</t>
   </si>
   <si>
+    <t>Patient.address.extension:address-official</t>
+  </si>
+  <si>
+    <t>address-official</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {address-official}
+</t>
+  </si>
+  <si>
+    <t>Indicate that this address is meant to be the 'official' address for that person. This can be indicated by setting the boolean to 'true' or adding a code for the country, e.g. 'DK'. In Denmark the official is the address registered in the CPR-register, see: https://www.retsinformation.dk/eli/lta/2023/1010.</t>
+  </si>
+  <si>
+    <t>This extension allows to specify if this address is or it is not the official address, or to indicate that this is the official address for that country (true assumed).  Note: It does not make sense to repeat this extension without the valueCodeableConcept to specify jurisdictions.</t>
+  </si>
+  <si>
     <t>Patient.address.use</t>
   </si>
   <si>
@@ -1427,7 +1430,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-RelatedPersonRelationshipTypes</t>
+    <t>http://hl7.dk/fhir/core/ValueSet/extended-patient-contactrelationship</t>
   </si>
   <si>
     <t>code</t>
@@ -1616,7 +1619,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role)
 </t>
   </si>
   <si>
@@ -1647,6 +1650,10 @@
     <t>referencedSORUnit</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
     <t>[DA] Praktiserende læges SOR-id på sundhedsinstistutionsniveau</t>
   </si>
   <si>
@@ -1719,7 +1726,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -1731,6 +1741,9 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>.identifier</t>
+  </si>
+  <si>
     <t>Patient.generalPractitioner:referencedSORUnit.display</t>
   </si>
   <si>
@@ -1750,6 +1763,10 @@
   </si>
   <si>
     <t>Patient.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization)
+</t>
   </si>
   <si>
     <t>Organization that is the custodian of the patient record</t>
@@ -2132,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2151,7 +2168,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.44921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="191.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2166,7 +2183,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -3501,7 +3518,7 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>159</v>
@@ -3510,7 +3527,7 @@
         <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3572,22 +3589,22 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3595,13 +3612,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
@@ -3620,16 +3637,16 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3691,22 +3708,22 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3714,13 +3731,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>81</v>
@@ -3739,16 +3756,16 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3810,22 +3827,22 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3833,10 +3850,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3859,26 +3876,26 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="P15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="R15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3922,7 +3939,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3937,13 +3954,13 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3954,10 +3971,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3980,19 +3997,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -4029,7 +4046,7 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -4039,7 +4056,7 @@
         <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4054,16 +4071,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -4071,13 +4088,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>81</v>
@@ -4099,19 +4116,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -4160,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4175,16 +4192,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -4192,10 +4209,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4218,13 +4235,13 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4275,7 +4292,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4290,7 +4307,7 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
@@ -4307,10 +4324,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4339,7 +4356,7 @@
         <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>138</v>
@@ -4380,10 +4397,10 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>81</v>
@@ -4392,7 +4409,7 @@
         <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4407,7 +4424,7 @@
         <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>81</v>
@@ -4424,10 +4441,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4453,23 +4470,23 @@
         <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>81</v>
@@ -4487,13 +4504,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4511,7 +4528,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4526,7 +4543,7 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4535,7 +4552,7 @@
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4543,10 +4560,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4569,19 +4586,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4630,7 +4647,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4645,7 +4662,7 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4654,7 +4671,7 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4662,14 +4679,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4688,16 +4705,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4747,7 +4764,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4762,7 +4779,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4771,7 +4788,7 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4779,14 +4796,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4805,16 +4822,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4864,7 +4881,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4879,7 +4896,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4888,7 +4905,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4896,10 +4913,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4922,13 +4939,13 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4979,7 +4996,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4994,7 +5011,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -5003,7 +5020,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -5011,10 +5028,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5037,13 +5054,13 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5094,7 +5111,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5109,7 +5126,7 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -5118,7 +5135,7 @@
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5126,10 +5143,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5152,17 +5169,17 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5211,7 +5228,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5226,7 +5243,7 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
@@ -5235,7 +5252,7 @@
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5243,10 +5260,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5269,19 +5286,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5330,7 +5347,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5345,16 +5362,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5362,10 +5379,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5391,16 +5408,16 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5425,13 +5442,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5449,7 +5466,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5464,16 +5481,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5481,10 +5498,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5507,19 +5524,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5568,7 +5585,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5583,27 +5600,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5626,19 +5643,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5687,7 +5704,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5702,16 +5719,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5719,10 +5736,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5745,19 +5762,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5806,7 +5823,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5821,16 +5838,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5838,10 +5855,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5864,13 +5881,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5921,7 +5938,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5953,7 @@
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5953,10 +5970,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5985,7 +6002,7 @@
         <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -6026,10 +6043,10 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
@@ -6038,7 +6055,7 @@
         <v>152</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6053,7 +6070,7 @@
         <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6070,13 +6087,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>81</v>
@@ -6098,13 +6115,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6155,7 +6172,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6187,13 +6204,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>81</v>
@@ -6215,13 +6232,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6272,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6304,12 +6321,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6324,26 +6343,22 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6355,7 +6370,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6367,13 +6382,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6391,22 +6406,22 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6415,7 +6430,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6423,10 +6438,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6443,7 +6458,7 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>90</v>
@@ -6452,15 +6467,17 @@
         <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6472,7 +6489,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6484,13 +6501,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6508,7 +6525,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6523,7 +6540,7 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6532,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6540,10 +6557,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6566,20 +6583,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6591,7 +6606,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6603,13 +6618,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6627,7 +6642,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6642,7 +6657,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6651,7 +6666,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6659,10 +6674,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6673,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6685,16 +6700,20 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6706,7 +6725,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6742,13 +6761,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6757,7 +6776,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6785,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6774,21 +6793,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6800,13 +6819,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6821,7 +6840,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6857,13 +6876,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6872,7 +6891,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6881,7 +6900,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6889,14 +6908,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6915,17 +6934,15 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6938,7 +6955,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6974,7 +6991,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6989,7 +7006,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6998,7 +7015,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7006,14 +7023,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7032,15 +7049,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7053,7 +7072,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7089,7 +7108,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7104,7 +7123,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7113,7 +7132,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7121,14 +7140,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7147,13 +7166,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7168,7 +7187,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7204,7 +7223,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7219,7 +7238,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7228,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7236,14 +7255,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7262,17 +7281,15 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7285,7 +7302,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7321,7 +7338,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7336,7 +7353,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -7345,7 +7362,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7353,10 +7370,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7379,18 +7396,18 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7402,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7438,7 +7455,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7453,7 +7470,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -7462,7 +7479,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7470,10 +7487,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7493,20 +7510,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7519,7 +7536,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7531,11 +7548,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7553,7 +7572,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7568,16 +7587,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7585,10 +7604,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7611,19 +7630,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7648,13 +7665,11 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7672,7 +7687,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7687,16 +7702,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7704,10 +7719,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7718,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7730,19 +7745,19 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7791,13 +7806,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7806,16 +7821,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7823,10 +7838,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7849,19 +7864,19 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7910,7 +7925,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7922,19 +7937,19 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>439</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7942,10 +7957,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7956,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7968,16 +7983,20 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8025,25 +8044,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -8064,14 +8083,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8083,17 +8102,15 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8142,22 +8159,22 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
@@ -8181,7 +8198,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8194,26 +8211,24 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>445</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>446</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8261,7 +8276,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>203</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8276,7 +8291,7 @@
         <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8293,14 +8308,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8313,23 +8328,25 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8354,11 +8371,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8388,19 +8407,19 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>453</v>
+        <v>132</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8408,10 +8427,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8422,7 +8441,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8434,17 +8453,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8469,13 +8488,11 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8493,13 +8510,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8508,16 +8525,16 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>190</v>
+        <v>454</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8525,10 +8542,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8539,7 +8556,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8551,19 +8568,17 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>275</v>
+        <v>459</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8612,13 +8627,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8627,16 +8642,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8644,10 +8659,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8658,7 +8673,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8670,17 +8685,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>468</v>
+        <v>271</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8729,13 +8746,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8744,16 +8761,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8761,10 +8778,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8787,17 +8804,17 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8822,13 +8839,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8846,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8861,16 +8878,16 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8878,10 +8895,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8904,17 +8921,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>276</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8939,13 +8956,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8963,7 +8980,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8972,22 +8989,22 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>480</v>
+        <v>282</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8995,10 +9012,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9021,16 +9038,18 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>263</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9078,7 +9097,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9087,22 +9106,22 @@
         <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9110,10 +9129,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9124,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9136,20 +9155,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9197,13 +9212,13 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
@@ -9212,10 +9227,10 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>177</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9229,10 +9244,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9243,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9255,16 +9270,20 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9312,25 +9331,25 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>487</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>181</v>
+        <v>492</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9351,14 +9370,14 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9370,17 +9389,15 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9429,22 +9446,22 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -9468,7 +9485,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9481,26 +9498,24 @@
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>200</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9548,7 +9563,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>447</v>
+        <v>203</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9563,7 +9578,7 @@
         <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>81</v>
@@ -9587,38 +9602,38 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>499</v>
+        <v>138</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9643,13 +9658,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9667,31 +9682,31 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>501</v>
+        <v>132</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9699,10 +9714,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9710,7 +9725,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9725,19 +9740,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9762,13 +9777,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9786,10 +9801,10 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -9801,16 +9816,16 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9818,21 +9833,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9844,18 +9859,20 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>514</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9891,23 +9908,25 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
@@ -9916,16 +9935,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>181</v>
+        <v>511</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9933,16 +9952,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9961,16 +9978,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10008,19 +10025,17 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10035,16 +10050,16 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -10052,21 +10067,23 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -10078,15 +10095,17 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>198</v>
+        <v>524</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>199</v>
+        <v>525</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10135,31 +10154,31 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -10174,14 +10193,14 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10193,17 +10212,15 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10240,34 +10257,34 @@
         <v>81</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -10291,14 +10308,14 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -10307,19 +10324,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>530</v>
+        <v>136</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>531</v>
+        <v>200</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>532</v>
+        <v>138</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10357,34 +10374,34 @@
         <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>533</v>
+        <v>203</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -10401,10 +10418,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10427,16 +10444,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10462,13 +10479,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10486,7 +10503,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10495,7 +10512,7 @@
         <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>101</v>
@@ -10518,10 +10535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10541,19 +10558,19 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>161</v>
+        <v>540</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10579,13 +10596,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>81</v>
+        <v>543</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10603,7 +10620,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10612,13 +10629,13 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>81</v>
@@ -10627,7 +10644,7 @@
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10635,10 +10652,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10661,16 +10678,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>547</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10720,7 +10737,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10735,7 +10752,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>132</v>
+        <v>552</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>
@@ -10752,10 +10769,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10778,20 +10795,18 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>475</v>
+        <v>194</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>559</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10839,7 +10854,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10854,10 +10869,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>480</v>
+        <v>132</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10871,10 +10886,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10885,31 +10900,31 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>434</v>
+        <v>560</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10958,13 +10973,13 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
@@ -10973,10 +10988,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>181</v>
+        <v>565</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10990,10 +11005,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11004,28 +11019,32 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>567</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11073,25 +11092,25 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>201</v>
+        <v>566</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>181</v>
+        <v>571</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11105,21 +11124,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11131,17 +11150,15 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11190,22 +11207,22 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>81</v>
@@ -11222,14 +11239,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11242,26 +11259,24 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>445</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>446</v>
+        <v>200</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11309,7 +11324,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>203</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11324,7 +11339,7 @@
         <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>81</v>
@@ -11341,44 +11356,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>571</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>572</v>
+        <v>446</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>573</v>
+        <v>447</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11426,31 +11443,31 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>570</v>
+        <v>448</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11458,10 +11475,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11484,7 +11501,7 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>577</v>
@@ -11492,7 +11509,9 @@
       <c r="M80" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11517,13 +11536,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>578</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11541,7 +11560,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11556,18 +11575,133 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO80" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/fhir/core/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1499,7 +1499,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1650,7 +1650,7 @@
     <t>referencedSORUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1710,7 +1710,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2158,17 +2158,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.8671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2177,27 +2177,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.03125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.74609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="89.4296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
